--- a/Data_GamesCompanies/Data_2301.xlsx
+++ b/Data_GamesCompanies/Data_2301.xlsx
@@ -37,8 +37,7 @@
     <t>Cumulative Revenue</t>
   </si>
   <si>
-    <t>RPD
-As of Jan 31, 2023</t>
+    <t>Revenue/Downloads</t>
   </si>
   <si>
     <t>Paid Downloads</t>
@@ -775,7 +774,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -842,25 +841,25 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1210,7 +1209,7 @@
     <col min="25" max="25" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="32.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1343,10 +1342,10 @@
         <v>88.54</v>
       </c>
       <c r="S2" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T2" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U2" s="5">
         <v>746000000</v>
@@ -1364,7 +1363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1420,10 +1419,10 @@
         <v>45.92</v>
       </c>
       <c r="S3" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T3" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U3" s="5">
         <v>1150000000</v>
@@ -1441,7 +1440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1497,10 +1496,10 @@
         <v>69.29</v>
       </c>
       <c r="S4" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T4" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U4" s="5">
         <v>1890000000</v>
@@ -1518,7 +1517,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1574,10 +1573,10 @@
         <v>40.09</v>
       </c>
       <c r="S5" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T5" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U5" s="5">
         <v>308000000</v>
@@ -1595,7 +1594,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1651,10 +1650,10 @@
         <v>41.21</v>
       </c>
       <c r="S6" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T6" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U6" s="5">
         <v>668000000</v>
@@ -1672,7 +1671,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1728,10 +1727,10 @@
         <v>55.33</v>
       </c>
       <c r="S7" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T7" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U7" s="5">
         <v>506000000</v>
@@ -1749,7 +1748,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1803,10 +1802,10 @@
         <v>64.97</v>
       </c>
       <c r="S8" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T8" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U8" s="5">
         <v>52700000</v>
@@ -1824,7 +1823,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1878,10 +1877,10 @@
         <v>21.44</v>
       </c>
       <c r="S9" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T9" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U9" s="5">
         <v>495000000</v>
@@ -1899,7 +1898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1955,10 +1954,10 @@
         <v>57.2</v>
       </c>
       <c r="S10" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T10" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U10" s="5">
         <v>265000000</v>
@@ -1976,7 +1975,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2032,10 +2031,10 @@
         <v>40.97</v>
       </c>
       <c r="S11" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T11" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U11" s="5">
         <v>89500000</v>
@@ -2053,7 +2052,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2109,10 +2108,10 @@
         <v>50.11</v>
       </c>
       <c r="S12" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T12" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U12" s="5">
         <v>549000000</v>
@@ -2130,7 +2129,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2186,10 +2185,10 @@
         <v>33.35</v>
       </c>
       <c r="S13" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T13" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U13" s="5">
         <v>150000000</v>
@@ -2207,7 +2206,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2263,10 +2262,10 @@
         <v>41.75</v>
       </c>
       <c r="S14" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T14" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U14" s="5">
         <v>108000000</v>
@@ -2284,7 +2283,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2338,10 +2337,10 @@
         <v>35.08</v>
       </c>
       <c r="S15" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T15" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U15" s="5">
         <v>247000000</v>
@@ -2359,7 +2358,7 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2415,10 +2414,10 @@
         <v>61.95</v>
       </c>
       <c r="S16" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T16" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U16" s="5">
         <v>225000000</v>
@@ -2436,7 +2435,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2492,10 +2491,10 @@
         <v>84.58</v>
       </c>
       <c r="S17" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T17" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U17" s="5">
         <v>359000000</v>
@@ -2513,7 +2512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2569,10 +2568,10 @@
         <v>36.52</v>
       </c>
       <c r="S18" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T18" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U18" s="5">
         <v>23200000</v>
@@ -2590,7 +2589,7 @@
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2646,10 +2645,10 @@
         <v>68.9</v>
       </c>
       <c r="S19" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T19" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U19" s="5">
         <v>555000000</v>
@@ -2667,7 +2666,7 @@
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2721,10 +2720,10 @@
         <v>57.97</v>
       </c>
       <c r="S20" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T20" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U20" s="5">
         <v>190000000</v>
@@ -2742,7 +2741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2798,10 +2797,10 @@
         <v>34.9</v>
       </c>
       <c r="S21" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T21" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U21" s="5">
         <v>51900000</v>
@@ -2819,7 +2818,7 @@
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2875,10 +2874,10 @@
         <v>74.09</v>
       </c>
       <c r="S22" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T22" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U22" s="5">
         <v>528000000</v>
@@ -2896,7 +2895,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2952,10 +2951,10 @@
         <v>59.06</v>
       </c>
       <c r="S23" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T23" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U23" s="5">
         <v>172000000</v>
@@ -2973,7 +2972,7 @@
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -3029,10 +3028,10 @@
         <v>50.09</v>
       </c>
       <c r="S24" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T24" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U24" s="5">
         <v>19900000</v>
@@ -3050,7 +3049,7 @@
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3106,10 +3105,10 @@
         <v>74.86</v>
       </c>
       <c r="S25" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T25" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U25" s="5">
         <v>431000000</v>
@@ -3127,7 +3126,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3183,10 +3182,10 @@
         <v>37.57</v>
       </c>
       <c r="S26" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T26" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U26" s="5">
         <v>591000000</v>
@@ -3260,10 +3259,10 @@
         <v>42.86</v>
       </c>
       <c r="S27" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T27" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U27" s="5">
         <v>746000000</v>
@@ -3337,10 +3336,10 @@
         <v>76.98</v>
       </c>
       <c r="S28" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T28" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U28" s="5">
         <v>99000000</v>
@@ -3414,10 +3413,10 @@
         <v>43.79</v>
       </c>
       <c r="S29" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T29" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U29" s="5">
         <v>78300000</v>
@@ -3491,10 +3490,10 @@
         <v>99.5</v>
       </c>
       <c r="S30" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T30" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U30" s="5">
         <v>46400000</v>
@@ -3568,10 +3567,10 @@
         <v>46</v>
       </c>
       <c r="S31" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T31" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U31" s="5">
         <v>37300000</v>
@@ -3645,10 +3644,10 @@
         <v>55.52</v>
       </c>
       <c r="S32" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T32" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U32" s="5">
         <v>455000000</v>
@@ -3722,10 +3721,10 @@
         <v>18.27</v>
       </c>
       <c r="S33" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T33" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U33" s="5">
         <v>41700000</v>
@@ -3799,10 +3798,10 @@
         <v>73.8</v>
       </c>
       <c r="S34" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T34" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U34" s="5">
         <v>37100000</v>
@@ -3876,10 +3875,10 @@
         <v>13.86</v>
       </c>
       <c r="S35" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T35" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U35" s="5">
         <v>2090000</v>
@@ -3953,10 +3952,10 @@
         <v>65</v>
       </c>
       <c r="S36" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T36" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U36" s="5">
         <v>92500000</v>
@@ -4030,10 +4029,10 @@
         <v>40.98</v>
       </c>
       <c r="S37" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T37" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U37" s="5">
         <v>57600000</v>
@@ -4107,10 +4106,10 @@
         <v>56.15</v>
       </c>
       <c r="S38" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T38" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U38" s="5">
         <v>23600000</v>
@@ -4182,10 +4181,10 @@
         <v>16.15</v>
       </c>
       <c r="S39" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T39" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U39" s="5">
         <v>11500000</v>
@@ -4259,10 +4258,10 @@
         <v>88.51</v>
       </c>
       <c r="S40" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T40" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U40" s="5">
         <v>121000000</v>
@@ -4336,10 +4335,10 @@
         <v>34.97</v>
       </c>
       <c r="S41" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T41" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U41" s="5">
         <v>39800000</v>
@@ -4413,10 +4412,10 @@
         <v>84.23</v>
       </c>
       <c r="S42" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T42" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U42" s="5">
         <v>75200000</v>
@@ -4490,10 +4489,10 @@
         <v>74.51</v>
       </c>
       <c r="S43" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T43" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U43" s="5">
         <v>66200000</v>
@@ -4565,10 +4564,10 @@
         <v>28.01</v>
       </c>
       <c r="S44" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T44" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U44" s="5">
         <v>36600000</v>
@@ -4642,10 +4641,10 @@
         <v>29.16</v>
       </c>
       <c r="S45" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T45" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U45" s="5">
         <v>36700000</v>
@@ -4717,10 +4716,10 @@
         <v>138.87</v>
       </c>
       <c r="S46" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T46" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U46" s="5">
         <v>8490000</v>
@@ -4794,10 +4793,10 @@
         <v>21.12</v>
       </c>
       <c r="S47" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T47" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U47" s="5">
         <v>94900000</v>
@@ -4871,10 +4870,10 @@
         <v>26.75</v>
       </c>
       <c r="S48" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T48" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U48" s="5">
         <v>331000000</v>
@@ -4948,10 +4947,10 @@
         <v>83.47</v>
       </c>
       <c r="S49" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T49" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U49" s="5">
         <v>297000000</v>
@@ -5025,10 +5024,10 @@
         <v>118.87</v>
       </c>
       <c r="S50" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T50" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U50" s="5">
         <v>13000000</v>
@@ -5102,10 +5101,10 @@
         <v>95.63</v>
       </c>
       <c r="S51" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T51" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U51" s="5">
         <v>156000000</v>
@@ -5179,10 +5178,10 @@
         <v>27.53</v>
       </c>
       <c r="S52" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T52" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U52" s="5">
         <v>7550000</v>
@@ -5256,10 +5255,10 @@
         <v>20.06</v>
       </c>
       <c r="S53" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T53" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U53" s="5">
         <v>1290000</v>
@@ -5333,10 +5332,10 @@
         <v>10.03</v>
       </c>
       <c r="S54" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T54" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U54" s="5">
         <v>30600000</v>
@@ -5410,10 +5409,10 @@
         <v>75.37</v>
       </c>
       <c r="S55" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T55" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U55" s="5">
         <v>125000000</v>
@@ -5485,10 +5484,10 @@
         <v>26.61</v>
       </c>
       <c r="S56" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T56" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U56" s="5">
         <v>8380000</v>
@@ -5562,10 +5561,10 @@
         <v>22.33</v>
       </c>
       <c r="S57" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T57" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U57" s="5">
         <v>83100000</v>
@@ -5639,10 +5638,10 @@
         <v>15.44</v>
       </c>
       <c r="S58" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T58" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U58" s="5">
         <v>36500000</v>
@@ -5714,10 +5713,10 @@
         <v>5.87</v>
       </c>
       <c r="S59" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T59" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U59" s="5">
         <v>52100</v>
@@ -5787,10 +5786,10 @@
         <v>73.25</v>
       </c>
       <c r="S60" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T60" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U60" s="5">
         <v>4000000</v>
@@ -5862,10 +5861,10 @@
         <v>45.2</v>
       </c>
       <c r="S61" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T61" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U61" s="5">
         <v>8760000</v>
@@ -5933,10 +5932,10 @@
         <v>24.15</v>
       </c>
       <c r="S62" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T62" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U62" s="5">
         <v>651000</v>
@@ -6010,10 +6009,10 @@
         <v>86.08</v>
       </c>
       <c r="S63" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T63" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U63" s="5">
         <v>42000000</v>
@@ -6087,10 +6086,10 @@
         <v>34.24</v>
       </c>
       <c r="S64" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T64" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U64" s="5">
         <v>5660000</v>
@@ -6164,10 +6163,10 @@
         <v>46.54</v>
       </c>
       <c r="S65" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T65" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U65" s="5">
         <v>276000000</v>
@@ -6241,10 +6240,10 @@
         <v>74.89</v>
       </c>
       <c r="S66" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T66" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U66" s="5">
         <v>4740000</v>
@@ -6318,10 +6317,10 @@
         <v>44.07</v>
       </c>
       <c r="S67" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T67" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U67" s="5">
         <v>67800000</v>
@@ -6395,10 +6394,10 @@
         <v>40.51</v>
       </c>
       <c r="S68" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T68" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U68" s="5">
         <v>47600000</v>
@@ -6472,10 +6471,10 @@
         <v>9.72</v>
       </c>
       <c r="S69" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T69" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U69" s="5">
         <v>8610000</v>
@@ -6549,10 +6548,10 @@
         <v>90.27</v>
       </c>
       <c r="S70" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T70" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U70" s="5">
         <v>9390000</v>
@@ -6626,10 +6625,10 @@
         <v>74.03</v>
       </c>
       <c r="S71" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T71" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U71" s="5">
         <v>3640000</v>
@@ -6703,10 +6702,10 @@
         <v>65.84</v>
       </c>
       <c r="S72" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T72" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U72" s="5">
         <v>155000000</v>
@@ -6780,10 +6779,10 @@
         <v>23.34</v>
       </c>
       <c r="S73" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T73" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U73" s="5">
         <v>14700000</v>
@@ -6855,10 +6854,10 @@
         <v>24.98</v>
       </c>
       <c r="S74" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T74" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U74" s="5">
         <v>125000000</v>
@@ -6932,10 +6931,10 @@
         <v>28.11</v>
       </c>
       <c r="S75" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T75" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U75" s="5">
         <v>56700000</v>
@@ -7009,10 +7008,10 @@
         <v>26.78</v>
       </c>
       <c r="S76" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T76" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U76" s="5">
         <v>52400000</v>
@@ -7086,10 +7085,10 @@
         <v>19.11</v>
       </c>
       <c r="S77" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T77" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U77" s="5">
         <v>29800000</v>
@@ -7163,10 +7162,10 @@
         <v>36.89</v>
       </c>
       <c r="S78" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T78" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U78" s="5">
         <v>25900000</v>
@@ -7240,10 +7239,10 @@
         <v>19.51</v>
       </c>
       <c r="S79" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T79" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U79" s="5">
         <v>11600000</v>
@@ -7317,10 +7316,10 @@
         <v>40.63</v>
       </c>
       <c r="S80" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T80" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U80" s="5">
         <v>3930000</v>
@@ -7394,10 +7393,10 @@
         <v>40.6</v>
       </c>
       <c r="S81" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T81" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U81" s="5">
         <v>35600000</v>
@@ -7471,10 +7470,10 @@
         <v>21.59</v>
       </c>
       <c r="S82" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T82" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U82" s="5">
         <v>185000000</v>
@@ -7548,10 +7547,10 @@
         <v>12.29</v>
       </c>
       <c r="S83" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T83" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U83" s="5">
         <v>17400000</v>
@@ -7623,10 +7622,10 @@
         <v>37.13</v>
       </c>
       <c r="S84" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T84" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U84" s="5">
         <v>1650000</v>
@@ -7700,10 +7699,10 @@
         <v>38.03</v>
       </c>
       <c r="S85" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T85" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U85" s="5">
         <v>55500000</v>
@@ -7777,10 +7776,10 @@
         <v>43.68</v>
       </c>
       <c r="S86" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T86" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U86" s="5">
         <v>51700000</v>
@@ -7854,10 +7853,10 @@
         <v>19.3</v>
       </c>
       <c r="S87" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T87" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U87" s="5">
         <v>49800000</v>
@@ -7929,10 +7928,10 @@
         <v>34.27</v>
       </c>
       <c r="S88" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T88" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U88" s="5">
         <v>2210000</v>
@@ -8006,10 +8005,10 @@
         <v>54.09</v>
       </c>
       <c r="S89" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T89" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U89" s="5">
         <v>21000000</v>
@@ -8083,10 +8082,10 @@
         <v>37.17</v>
       </c>
       <c r="S90" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T90" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U90" s="5">
         <v>94500000</v>
@@ -8160,10 +8159,10 @@
         <v>45.82</v>
       </c>
       <c r="S91" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T91" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U91" s="5">
         <v>42100000</v>
@@ -8231,7 +8230,7 @@
         <v>449.35</v>
       </c>
       <c r="S92" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T92" s="11" t="s">
         <v>234</v>
@@ -8308,10 +8307,10 @@
         <v>54.85</v>
       </c>
       <c r="S93" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T93" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U93" s="5">
         <v>13300000</v>
@@ -8385,10 +8384,10 @@
         <v>35.75</v>
       </c>
       <c r="S94" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T94" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U94" s="5">
         <v>9400000</v>
@@ -8462,10 +8461,10 @@
         <v>72.21</v>
       </c>
       <c r="S95" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T95" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U95" s="5">
         <v>56900000</v>
@@ -8539,10 +8538,10 @@
         <v>100.12</v>
       </c>
       <c r="S96" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T96" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U96" s="5">
         <v>118000000</v>
@@ -8616,10 +8615,10 @@
         <v>25.45</v>
       </c>
       <c r="S97" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T97" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U97" s="5">
         <v>14800000</v>
@@ -8689,10 +8688,10 @@
         <v>51.03</v>
       </c>
       <c r="S98" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T98" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U98" s="5">
         <v>806000</v>
@@ -8760,10 +8759,10 @@
         <v>9.82</v>
       </c>
       <c r="S99" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T99" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U99" s="5">
         <v>209000</v>
@@ -8837,10 +8836,10 @@
         <v>19.38</v>
       </c>
       <c r="S100" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T100" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U100" s="5">
         <v>5790000</v>
@@ -8914,10 +8913,10 @@
         <v>36.76</v>
       </c>
       <c r="S101" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T101" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U101" s="5">
         <v>8120000</v>
